--- a/Force Experiment.xlsx
+++ b/Force Experiment.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="1x1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,37 +19,53 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>1x1</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>1x2</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1x3</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1x4</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2x2</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2x4</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2x8</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Mean</t>
+    <t>Median</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Black</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Green</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Orange</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Blue</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Yellow</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>White</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Red</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Average</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TOTAL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Average</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -84,12 +100,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="0"/>
@@ -99,6 +109,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <name val="游ゴシック"/>
       <family val="3"/>
@@ -106,7 +126,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -125,6 +145,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="18">
     <border>
@@ -135,25 +161,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -166,62 +183,139 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -239,168 +333,148 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -683,10 +757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection activeCell="K15" sqref="K15:N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -694,164 +768,378 @@
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="2">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13">
         <v>1</v>
       </c>
-      <c r="C1" s="7">
+      <c r="C1" s="14">
         <v>2</v>
       </c>
-      <c r="D1" s="7">
+      <c r="D1" s="14">
         <v>3</v>
       </c>
-      <c r="E1" s="7">
+      <c r="E1" s="14">
         <v>4</v>
       </c>
-      <c r="F1" s="7">
+      <c r="F1" s="14">
         <v>5</v>
       </c>
-      <c r="G1" s="7">
+      <c r="G1" s="14">
         <v>6</v>
       </c>
-      <c r="H1" s="7">
+      <c r="H1" s="14">
         <v>7</v>
       </c>
-      <c r="I1" s="7">
+      <c r="I1" s="14">
         <v>8</v>
       </c>
-      <c r="J1" s="7">
+      <c r="J1" s="14">
         <v>9</v>
       </c>
-      <c r="K1" s="8">
+      <c r="K1" s="15">
         <v>10</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="L1"/>
+      <c r="M1" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A2" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="16">
+        <v>6.46</v>
+      </c>
+      <c r="C2" s="8">
+        <v>7.04</v>
+      </c>
+      <c r="D2" s="8">
+        <v>6.33</v>
+      </c>
+      <c r="E2" s="8">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="F2" s="8">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="G2" s="8">
+        <v>6.45</v>
+      </c>
+      <c r="H2" s="8">
+        <v>3.53</v>
+      </c>
+      <c r="I2" s="8">
+        <v>3.87</v>
+      </c>
+      <c r="J2" s="8">
+        <v>5.46</v>
+      </c>
+      <c r="K2" s="9">
+        <v>2.75</v>
+      </c>
+      <c r="M2" s="2">
+        <f>AVERAGE(B2:K2)</f>
+        <v>5.0549999999999997</v>
+      </c>
+      <c r="N2" s="3">
+        <f>MEDIAN(B2:K2)</f>
+        <v>4.9249999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="16">
+        <v>4.95</v>
+      </c>
+      <c r="C3" s="8">
+        <v>4.55</v>
+      </c>
+      <c r="D3" s="8">
+        <v>5.87</v>
+      </c>
+      <c r="E3" s="8">
+        <v>6.17</v>
+      </c>
+      <c r="F3" s="8">
+        <v>3.59</v>
+      </c>
+      <c r="G3" s="8">
+        <v>7.39</v>
+      </c>
+      <c r="H3" s="8">
+        <v>5.81</v>
+      </c>
+      <c r="I3" s="8">
+        <v>3.87</v>
+      </c>
+      <c r="J3" s="8">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="K3" s="9">
+        <v>3.56</v>
+      </c>
+      <c r="M3" s="4">
+        <f>AVERAGE(B3:K3)</f>
+        <v>5.0860000000000003</v>
+      </c>
+      <c r="N3" s="5">
+        <f>MEDIAN(B3:K3)</f>
+        <v>5.0250000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A4" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="16">
+        <v>4.13</v>
+      </c>
+      <c r="C4" s="8">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="D4" s="8">
+        <v>4.88</v>
+      </c>
+      <c r="E4" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="F4" s="8">
+        <v>4.47</v>
+      </c>
+      <c r="G4" s="8">
+        <v>3.99</v>
+      </c>
+      <c r="H4" s="8">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="I4" s="8">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="J4" s="8">
+        <v>5.94</v>
+      </c>
+      <c r="K4" s="9">
+        <v>4.32</v>
+      </c>
+      <c r="M4" s="4">
+        <f t="shared" ref="M4:M8" si="0">AVERAGE(B4:K4)</f>
+        <v>4.5879999999999992</v>
+      </c>
+      <c r="N4" s="5">
+        <f t="shared" ref="N4:N8" si="1">MEDIAN(B4:K4)</f>
+        <v>4.34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A5" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="16">
+        <v>3.82</v>
+      </c>
+      <c r="C5" s="8">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="D5" s="8">
+        <v>3.67</v>
+      </c>
+      <c r="E5" s="8">
+        <v>6.01</v>
+      </c>
+      <c r="F5" s="8">
+        <v>5.42</v>
+      </c>
+      <c r="G5" s="8">
+        <v>3.04</v>
+      </c>
+      <c r="H5" s="8">
+        <v>5.14</v>
+      </c>
+      <c r="I5" s="8">
+        <v>3.84</v>
+      </c>
+      <c r="J5" s="8">
+        <v>3.4</v>
+      </c>
+      <c r="K5" s="9">
+        <v>3.82</v>
+      </c>
+      <c r="M5" s="4">
+        <f t="shared" si="0"/>
+        <v>4.2640000000000002</v>
+      </c>
+      <c r="N5" s="5">
+        <f t="shared" si="1"/>
+        <v>3.83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A6" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="16">
+        <v>8.82</v>
+      </c>
+      <c r="C6" s="8">
+        <v>3.44</v>
+      </c>
+      <c r="D6" s="8">
+        <v>5.89</v>
+      </c>
+      <c r="E6" s="8">
+        <v>6.96</v>
+      </c>
+      <c r="F6" s="8">
+        <v>4.54</v>
+      </c>
+      <c r="G6" s="8">
+        <v>4.41</v>
+      </c>
+      <c r="H6" s="8">
+        <v>4.18</v>
+      </c>
+      <c r="I6" s="8">
+        <v>5.7</v>
+      </c>
+      <c r="J6" s="8">
+        <v>5.59</v>
+      </c>
+      <c r="K6" s="9">
+        <v>4.49</v>
+      </c>
+      <c r="M6" s="4">
+        <f t="shared" si="0"/>
+        <v>5.4020000000000001</v>
+      </c>
+      <c r="N6" s="5">
+        <f t="shared" si="1"/>
+        <v>5.0649999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A7" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="B7" s="16">
+        <v>8.49</v>
+      </c>
+      <c r="C7" s="8">
+        <v>6.77</v>
+      </c>
+      <c r="D7" s="8">
+        <v>4.12</v>
+      </c>
+      <c r="E7" s="8">
+        <v>7.23</v>
+      </c>
+      <c r="F7" s="8">
+        <v>7.02</v>
+      </c>
+      <c r="G7" s="8">
+        <v>6.05</v>
+      </c>
+      <c r="H7" s="8">
+        <v>5.7</v>
+      </c>
+      <c r="I7" s="8">
+        <v>8.77</v>
+      </c>
+      <c r="J7" s="8">
+        <v>4.28</v>
+      </c>
+      <c r="K7" s="9">
+        <v>3.61</v>
+      </c>
+      <c r="M7" s="4">
+        <f t="shared" si="0"/>
+        <v>6.2039999999999988</v>
+      </c>
+      <c r="N7" s="5">
+        <f t="shared" si="1"/>
+        <v>6.41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="20" t="s">
         <v>8</v>
       </c>
+      <c r="B8" s="17">
+        <v>6.72</v>
+      </c>
+      <c r="C8" s="10">
+        <v>3.46</v>
+      </c>
+      <c r="D8" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="E8" s="10">
+        <v>3.22</v>
+      </c>
+      <c r="F8" s="10">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="G8" s="10">
+        <v>6.37</v>
+      </c>
+      <c r="H8" s="10">
+        <v>6.02</v>
+      </c>
+      <c r="I8" s="10">
+        <v>7.91</v>
+      </c>
+      <c r="J8" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="K8" s="11">
+        <v>6.16</v>
+      </c>
+      <c r="M8" s="6">
+        <f t="shared" si="0"/>
+        <v>5.403999999999999</v>
+      </c>
+      <c r="N8" s="7">
+        <f t="shared" si="1"/>
+        <v>5.5</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="13"/>
+    <row r="9" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="O10" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="P10" s="23"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="15"/>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="O11" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="P11" s="25" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A4" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="15"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A5" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="15"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A6" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="15"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A7" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="15"/>
-    </row>
-    <row r="8" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="17"/>
+    <row r="12" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="O12" s="26">
+        <f>AVERAGE(M2:M8)</f>
+        <v>5.1432857142857129</v>
+      </c>
+      <c r="P12" s="27">
+        <f>MEDIAN(N2:N8)</f>
+        <v>5.0250000000000004</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="O10:P10"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Force Experiment.xlsx
+++ b/Force Experiment.xlsx
@@ -456,26 +456,26 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -757,10 +757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15:N22"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -803,7 +803,7 @@
         <v>10</v>
       </c>
       <c r="L1"/>
-      <c r="M1" s="28" t="s">
+      <c r="M1" s="26" t="s">
         <v>9</v>
       </c>
       <c r="N1" s="21" t="s">
@@ -1113,27 +1113,33 @@
     </row>
     <row r="9" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="10" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="O10" s="22" t="s">
+      <c r="O10" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="P10" s="23"/>
+      <c r="P10" s="28"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="O11" s="24" t="s">
+      <c r="O11" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="P11" s="25" t="s">
+      <c r="P11" s="23" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="O12" s="26">
+      <c r="O12" s="24">
         <f>AVERAGE(M2:M8)</f>
         <v>5.1432857142857129</v>
       </c>
-      <c r="P12" s="27">
+      <c r="P12" s="25">
         <f>MEDIAN(N2:N8)</f>
         <v>5.0250000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="O14">
+        <f>O12/4*1000/9.8</f>
+        <v>131.20626822157431</v>
       </c>
     </row>
   </sheetData>

--- a/Force Experiment.xlsx
+++ b/Force Experiment.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1x1" sheetId="1" r:id="rId1"/>
+    <sheet name="2xn" sheetId="2" r:id="rId2"/>
+    <sheet name="1xn" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="28">
   <si>
     <t>1x1</t>
     <phoneticPr fontId="2"/>
@@ -70,6 +72,66 @@
   </si>
   <si>
     <t>Median</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Resultado Numerico</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Resultado Experimento</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tamanho Contato</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tamanho Bloco</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2x8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Massa do Peso</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Manteve</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Quebra</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2x4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2x2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1x4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1x3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1x2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2x16</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1x8</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -77,7 +139,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,8 +190,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -151,8 +222,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -399,11 +506,108 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -476,6 +680,93 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -759,7 +1050,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
@@ -1150,4 +1441,459 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="15.25" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.375" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.375" style="29" customWidth="1"/>
+    <col min="4" max="4" width="19.875" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5" style="29" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="29">
+        <v>1</v>
+      </c>
+      <c r="C2" s="29">
+        <v>0.01</v>
+      </c>
+      <c r="D2" s="29">
+        <v>157.33330000000001</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="36">
+        <v>1</v>
+      </c>
+      <c r="C3" s="36">
+        <v>0.02</v>
+      </c>
+      <c r="D3" s="37">
+        <v>141.83330000000001</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="40">
+        <v>1</v>
+      </c>
+      <c r="C4" s="40">
+        <v>0.05</v>
+      </c>
+      <c r="D4" s="40">
+        <v>352.33330000000001</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="40">
+        <v>2</v>
+      </c>
+      <c r="C5" s="40">
+        <v>0.05</v>
+      </c>
+      <c r="D5" s="47">
+        <v>88.133300000000006</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="40">
+        <v>1</v>
+      </c>
+      <c r="C6" s="40">
+        <v>0.1</v>
+      </c>
+      <c r="D6" s="40">
+        <v>701.83330000000001</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="40">
+        <v>2</v>
+      </c>
+      <c r="C7" s="40">
+        <v>0.1</v>
+      </c>
+      <c r="D7" s="42">
+        <v>175.45830000000001</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="44">
+        <v>3</v>
+      </c>
+      <c r="C8" s="44">
+        <v>0.1</v>
+      </c>
+      <c r="D8" s="44">
+        <v>77.981499999999997</v>
+      </c>
+      <c r="E8" s="45" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="36">
+        <v>1</v>
+      </c>
+      <c r="C9" s="36">
+        <v>0.05</v>
+      </c>
+      <c r="D9" s="48">
+        <v>150.78749999999999</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="40">
+        <v>2</v>
+      </c>
+      <c r="C10" s="40">
+        <v>0.05</v>
+      </c>
+      <c r="D10" s="40">
+        <v>37.696899999999999</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="40">
+        <v>1</v>
+      </c>
+      <c r="C11" s="40">
+        <v>0.1</v>
+      </c>
+      <c r="D11" s="47">
+        <v>300.48750000000001</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="44">
+        <v>2</v>
+      </c>
+      <c r="C12" s="44">
+        <v>0.1</v>
+      </c>
+      <c r="D12" s="44">
+        <v>75.121899999999997</v>
+      </c>
+      <c r="E12" s="45" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="52">
+        <v>1</v>
+      </c>
+      <c r="C13" s="52">
+        <v>0.1</v>
+      </c>
+      <c r="D13" s="53">
+        <v>100.1266</v>
+      </c>
+      <c r="E13" s="54" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="15.25" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.375" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.875" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5" style="29" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="29">
+        <v>1</v>
+      </c>
+      <c r="C2" s="29">
+        <v>0.02</v>
+      </c>
+      <c r="D2" s="30">
+        <v>120.515</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="29">
+        <v>1</v>
+      </c>
+      <c r="C3" s="29">
+        <v>0.05</v>
+      </c>
+      <c r="D3" s="33">
+        <v>301.11500000000001</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="29">
+        <v>2</v>
+      </c>
+      <c r="C4" s="29">
+        <v>0.05</v>
+      </c>
+      <c r="D4" s="30">
+        <v>75.278750000000002</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="29">
+        <v>1</v>
+      </c>
+      <c r="C5" s="29">
+        <v>0.1</v>
+      </c>
+      <c r="D5" s="56">
+        <v>600.51499999999999</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="29">
+        <v>2</v>
+      </c>
+      <c r="C6" s="29">
+        <v>0.1</v>
+      </c>
+      <c r="D6" s="56">
+        <v>150.12875</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="29">
+        <v>1</v>
+      </c>
+      <c r="C7" s="29">
+        <v>0.05</v>
+      </c>
+      <c r="D7" s="31">
+        <v>200.69143</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="29">
+        <v>1</v>
+      </c>
+      <c r="C8" s="29">
+        <v>0.1</v>
+      </c>
+      <c r="D8" s="29">
+        <v>400.29140000000001</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="29">
+        <v>2</v>
+      </c>
+      <c r="C9" s="29">
+        <v>0.1</v>
+      </c>
+      <c r="D9" s="29">
+        <v>100.0729</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="29">
+        <v>1</v>
+      </c>
+      <c r="C10" s="29">
+        <v>0.1</v>
+      </c>
+      <c r="D10" s="29">
+        <v>200.13900000000001</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="29">
+        <v>1</v>
+      </c>
+      <c r="C11" s="29">
+        <v>0.02</v>
+      </c>
+      <c r="D11" s="57">
+        <v>282.61599999999999</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>